--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lgi2</t>
+  </si>
+  <si>
+    <t>Adam22</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lgi2</t>
-  </si>
-  <si>
-    <t>Adam22</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.194617</v>
+        <v>0.126156</v>
       </c>
       <c r="H2">
-        <v>0.5838510000000001</v>
+        <v>0.378468</v>
       </c>
       <c r="I2">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="J2">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.293357333333334</v>
+        <v>4.407279333333333</v>
       </c>
       <c r="N2">
-        <v>15.880072</v>
+        <v>13.221838</v>
       </c>
       <c r="O2">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="P2">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="Q2">
-        <v>1.030177324141334</v>
+        <v>0.5560047315760001</v>
       </c>
       <c r="R2">
-        <v>9.271595917272004</v>
+        <v>5.004042584184</v>
       </c>
       <c r="S2">
-        <v>0.00519170597350861</v>
+        <v>0.003651489760548899</v>
       </c>
       <c r="T2">
-        <v>0.00519170597350861</v>
+        <v>0.003651489760548899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.194617</v>
+        <v>0.126156</v>
       </c>
       <c r="H3">
-        <v>0.5838510000000001</v>
+        <v>0.378468</v>
       </c>
       <c r="I3">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="J3">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.74076</v>
       </c>
       <c r="O3">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="P3">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="Q3">
-        <v>0.6967781629733334</v>
+        <v>0.45167043952</v>
       </c>
       <c r="R3">
-        <v>6.27100346676</v>
+        <v>4.06503395568</v>
       </c>
       <c r="S3">
-        <v>0.003511499686652701</v>
+        <v>0.002966287679558106</v>
       </c>
       <c r="T3">
-        <v>0.0035114996866527</v>
+        <v>0.002966287679558106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.194617</v>
+        <v>0.126156</v>
       </c>
       <c r="H4">
-        <v>0.5838510000000001</v>
+        <v>0.378468</v>
       </c>
       <c r="I4">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="J4">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.836954666666667</v>
+        <v>3.580339</v>
       </c>
       <c r="N4">
-        <v>17.510864</v>
+        <v>10.741017</v>
       </c>
       <c r="O4">
-        <v>0.3100514810566565</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="P4">
-        <v>0.3100514810566564</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="Q4">
-        <v>1.135970606362667</v>
+        <v>0.4516812468840001</v>
       </c>
       <c r="R4">
-        <v>10.223735457264</v>
+        <v>4.065131221956</v>
       </c>
       <c r="S4">
-        <v>0.005724864297220874</v>
+        <v>0.002966358655535006</v>
       </c>
       <c r="T4">
-        <v>0.005724864297220873</v>
+        <v>0.002966358655535006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.194617</v>
+        <v>0.126156</v>
       </c>
       <c r="H5">
-        <v>0.5838510000000001</v>
+        <v>0.378468</v>
       </c>
       <c r="I5">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="J5">
-        <v>0.01846423786691977</v>
+        <v>0.01239214403266014</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.115194333333332</v>
+        <v>3.389212666666667</v>
       </c>
       <c r="N5">
-        <v>12.345583</v>
+        <v>10.167638</v>
       </c>
       <c r="O5">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="P5">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="Q5">
-        <v>0.8008867755703333</v>
+        <v>0.4275695131760001</v>
       </c>
       <c r="R5">
-        <v>7.207980980133001</v>
+        <v>3.848125618584</v>
       </c>
       <c r="S5">
-        <v>0.004036167909537584</v>
+        <v>0.002808007937018128</v>
       </c>
       <c r="T5">
-        <v>0.004036167909537584</v>
+        <v>0.002808007937018128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>29.070453</v>
       </c>
       <c r="I6">
-        <v>0.9193505861788562</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="J6">
-        <v>0.9193505861788561</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.293357333333334</v>
+        <v>4.407279333333333</v>
       </c>
       <c r="N6">
-        <v>15.880072</v>
+        <v>13.221838</v>
       </c>
       <c r="O6">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="P6">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="Q6">
-        <v>51.29343185695734</v>
+        <v>42.70720223917933</v>
       </c>
       <c r="R6">
-        <v>461.6408867126161</v>
+        <v>384.364820152614</v>
       </c>
       <c r="S6">
-        <v>0.2584995906364831</v>
+        <v>0.2804740730101832</v>
       </c>
       <c r="T6">
-        <v>0.258499590636483</v>
+        <v>0.2804740730101832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>29.070453</v>
       </c>
       <c r="I7">
-        <v>0.9193505861788562</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="J7">
-        <v>0.9193505861788561</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.74076</v>
       </c>
       <c r="O7">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="P7">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="Q7">
         <v>34.69319541825333</v>
@@ -883,10 +883,10 @@
         <v>312.23875876428</v>
       </c>
       <c r="S7">
-        <v>0.1748406470149954</v>
+        <v>0.2278431111033772</v>
       </c>
       <c r="T7">
-        <v>0.1748406470149953</v>
+        <v>0.2278431111033772</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>29.070453</v>
       </c>
       <c r="I8">
-        <v>0.9193505861788562</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="J8">
-        <v>0.9193505861788561</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.836954666666667</v>
+        <v>3.580339</v>
       </c>
       <c r="N8">
-        <v>17.510864</v>
+        <v>10.741017</v>
       </c>
       <c r="O8">
-        <v>0.3100514810566565</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="P8">
-        <v>0.3100514810566564</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="Q8">
-        <v>56.56097210015467</v>
+        <v>34.694025541189</v>
       </c>
       <c r="R8">
-        <v>509.0487489013921</v>
+        <v>312.246229870701</v>
       </c>
       <c r="S8">
-        <v>0.2850460108550597</v>
+        <v>0.2278485628292843</v>
       </c>
       <c r="T8">
-        <v>0.2850460108550596</v>
+        <v>0.2278485628292843</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>29.070453</v>
       </c>
       <c r="I9">
-        <v>0.9193505861788562</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="J9">
-        <v>0.9193505861788561</v>
+        <v>0.9518512547181717</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.115194333333332</v>
+        <v>3.389212666666667</v>
       </c>
       <c r="N9">
-        <v>12.345583</v>
+        <v>10.167638</v>
       </c>
       <c r="O9">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="P9">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="Q9">
-        <v>39.87685448434432</v>
+        <v>32.84198251111267</v>
       </c>
       <c r="R9">
-        <v>358.891690359099</v>
+        <v>295.577842600014</v>
       </c>
       <c r="S9">
-        <v>0.2009643376723181</v>
+        <v>0.2156855077753269</v>
       </c>
       <c r="T9">
-        <v>0.2009643376723181</v>
+        <v>0.2156855077753269</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6477419999999999</v>
+        <v>0.3640136666666667</v>
       </c>
       <c r="H10">
-        <v>1.943226</v>
+        <v>1.092041</v>
       </c>
       <c r="I10">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="J10">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.293357333333334</v>
+        <v>4.407279333333333</v>
       </c>
       <c r="N10">
-        <v>15.880072</v>
+        <v>13.221838</v>
       </c>
       <c r="O10">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="P10">
-        <v>0.2811762939216672</v>
+        <v>0.2946616623342344</v>
       </c>
       <c r="Q10">
-        <v>3.428729865808</v>
+        <v>1.604309910150889</v>
       </c>
       <c r="R10">
-        <v>30.858568792272</v>
+        <v>14.438789191358</v>
       </c>
       <c r="S10">
-        <v>0.01727950801159412</v>
+        <v>0.01053609956350228</v>
       </c>
       <c r="T10">
-        <v>0.01727950801159412</v>
+        <v>0.01053609956350228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6477419999999999</v>
+        <v>0.3640136666666667</v>
       </c>
       <c r="H11">
-        <v>1.943226</v>
+        <v>1.092041</v>
       </c>
       <c r="I11">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="J11">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.74076</v>
       </c>
       <c r="O11">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="P11">
-        <v>0.1901784255576477</v>
+        <v>0.2393683991842171</v>
       </c>
       <c r="Q11">
-        <v>2.319080454639999</v>
+        <v>1.303261143462222</v>
       </c>
       <c r="R11">
-        <v>20.87172409175999</v>
+        <v>11.72935029116</v>
       </c>
       <c r="S11">
-        <v>0.01168729263133125</v>
+        <v>0.008559000401281779</v>
       </c>
       <c r="T11">
-        <v>0.01168729263133125</v>
+        <v>0.008559000401281781</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6477419999999999</v>
+        <v>0.3640136666666667</v>
       </c>
       <c r="H12">
-        <v>1.943226</v>
+        <v>1.092041</v>
       </c>
       <c r="I12">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="J12">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.836954666666667</v>
+        <v>3.580339</v>
       </c>
       <c r="N12">
-        <v>17.510864</v>
+        <v>10.741017</v>
       </c>
       <c r="O12">
-        <v>0.3100514810566565</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="P12">
-        <v>0.3100514810566564</v>
+        <v>0.2393741266819538</v>
       </c>
       <c r="Q12">
-        <v>3.780840689696</v>
+        <v>1.303292327299667</v>
       </c>
       <c r="R12">
-        <v>34.027566207264</v>
+        <v>11.729630945697</v>
       </c>
       <c r="S12">
-        <v>0.01905401403582648</v>
+        <v>0.008559205197134507</v>
       </c>
       <c r="T12">
-        <v>0.01905401403582648</v>
+        <v>0.008559205197134509</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6477419999999999</v>
+        <v>0.3640136666666667</v>
       </c>
       <c r="H13">
-        <v>1.943226</v>
+        <v>1.092041</v>
       </c>
       <c r="I13">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="J13">
-        <v>0.06145435580855908</v>
+        <v>0.03575660124916825</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.115194333333332</v>
+        <v>3.389212666666667</v>
       </c>
       <c r="N13">
-        <v>12.345583</v>
+        <v>10.167638</v>
       </c>
       <c r="O13">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="P13">
-        <v>0.2185937994640287</v>
+        <v>0.2265958117995947</v>
       </c>
       <c r="Q13">
-        <v>2.665584207861999</v>
+        <v>1.233719729906445</v>
       </c>
       <c r="R13">
-        <v>23.99025787075799</v>
+        <v>11.103477569158</v>
       </c>
       <c r="S13">
-        <v>0.01343354112980723</v>
+        <v>0.008102296087249682</v>
       </c>
       <c r="T13">
-        <v>0.01343354112980723</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.007703000000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.023109</v>
-      </c>
-      <c r="I14">
-        <v>0.0007308201456649881</v>
-      </c>
-      <c r="J14">
-        <v>0.000730820145664988</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>5.293357333333334</v>
-      </c>
-      <c r="N14">
-        <v>15.880072</v>
-      </c>
-      <c r="O14">
-        <v>0.2811762939216672</v>
-      </c>
-      <c r="P14">
-        <v>0.2811762939216672</v>
-      </c>
-      <c r="Q14">
-        <v>0.04077473153866668</v>
-      </c>
-      <c r="R14">
-        <v>0.3669725838480001</v>
-      </c>
-      <c r="S14">
-        <v>0.0002054893000813743</v>
-      </c>
-      <c r="T14">
-        <v>0.0002054893000813743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.007703000000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.023109</v>
-      </c>
-      <c r="I15">
-        <v>0.0007308201456649881</v>
-      </c>
-      <c r="J15">
-        <v>0.000730820145664988</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>3.580253333333333</v>
-      </c>
-      <c r="N15">
-        <v>10.74076</v>
-      </c>
-      <c r="O15">
-        <v>0.1901784255576477</v>
-      </c>
-      <c r="P15">
-        <v>0.1901784255576477</v>
-      </c>
-      <c r="Q15">
-        <v>0.02757869142666667</v>
-      </c>
-      <c r="R15">
-        <v>0.24820822284</v>
-      </c>
-      <c r="S15">
-        <v>0.0001389862246683782</v>
-      </c>
-      <c r="T15">
-        <v>0.0001389862246683781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.007703000000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.023109</v>
-      </c>
-      <c r="I16">
-        <v>0.0007308201456649881</v>
-      </c>
-      <c r="J16">
-        <v>0.000730820145664988</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.836954666666667</v>
-      </c>
-      <c r="N16">
-        <v>17.510864</v>
-      </c>
-      <c r="O16">
-        <v>0.3100514810566565</v>
-      </c>
-      <c r="P16">
-        <v>0.3100514810566564</v>
-      </c>
-      <c r="Q16">
-        <v>0.04496206179733334</v>
-      </c>
-      <c r="R16">
-        <v>0.4046585561760001</v>
-      </c>
-      <c r="S16">
-        <v>0.000226591868549471</v>
-      </c>
-      <c r="T16">
-        <v>0.0002265918685494709</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.007703000000000001</v>
-      </c>
-      <c r="H17">
-        <v>0.023109</v>
-      </c>
-      <c r="I17">
-        <v>0.0007308201456649881</v>
-      </c>
-      <c r="J17">
-        <v>0.000730820145664988</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.115194333333332</v>
-      </c>
-      <c r="N17">
-        <v>12.345583</v>
-      </c>
-      <c r="O17">
-        <v>0.2185937994640287</v>
-      </c>
-      <c r="P17">
-        <v>0.2185937994640287</v>
-      </c>
-      <c r="Q17">
-        <v>0.03169934194966666</v>
-      </c>
-      <c r="R17">
-        <v>0.285294077547</v>
-      </c>
-      <c r="S17">
-        <v>0.0001597527523657646</v>
-      </c>
-      <c r="T17">
-        <v>0.0001597527523657646</v>
+        <v>0.008102296087249682</v>
       </c>
     </row>
   </sheetData>
